--- a/Code/Results/Cases/Case_5_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_102/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.492352276780196</v>
+        <v>0.8095196980875699</v>
       </c>
       <c r="C2">
-        <v>0.6883903245888519</v>
+        <v>0.2248015017041212</v>
       </c>
       <c r="D2">
-        <v>0.04863312103504569</v>
+        <v>0.01752849954137758</v>
       </c>
       <c r="E2">
-        <v>0.191722792799645</v>
+        <v>0.1154778989324541</v>
       </c>
       <c r="F2">
-        <v>0.4149355530973935</v>
+        <v>0.4666915567120213</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1247470113757814</v>
+        <v>0.3178451623716185</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9906554378760717</v>
+        <v>0.3456511347932931</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.080393347494891</v>
+        <v>1.490067553058367</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.174587017302883</v>
+        <v>0.7078771821252303</v>
       </c>
       <c r="C3">
-        <v>0.6053196121455358</v>
+        <v>0.1978619620783775</v>
       </c>
       <c r="D3">
-        <v>0.04308419426878629</v>
+        <v>0.01565865828340662</v>
       </c>
       <c r="E3">
-        <v>0.1677501060472508</v>
+        <v>0.1108315602517393</v>
       </c>
       <c r="F3">
-        <v>0.3785688633784474</v>
+        <v>0.4635617682336814</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.130638460249255</v>
+        <v>0.3245545926818458</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8583373503952529</v>
+        <v>0.3069021009581476</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.007541744830007</v>
+        <v>1.493432419653928</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.979605286614316</v>
+        <v>0.6452677079924172</v>
       </c>
       <c r="C4">
-        <v>0.5543344067966416</v>
+        <v>0.1812406018910337</v>
       </c>
       <c r="D4">
-        <v>0.03967371749869386</v>
+        <v>0.01450505921918221</v>
       </c>
       <c r="E4">
-        <v>0.1535734019017028</v>
+        <v>0.1081095712119904</v>
       </c>
       <c r="F4">
-        <v>0.3574684735406279</v>
+        <v>0.4621030246409248</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1350713590610848</v>
+        <v>0.3290083440213767</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7776060035422887</v>
+        <v>0.2831425954706717</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.966837267724415</v>
+        <v>1.497032555072153</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.900152493042384</v>
+        <v>0.6197049179057501</v>
       </c>
       <c r="C5">
-        <v>0.5335549846267327</v>
+        <v>0.1744474129780542</v>
       </c>
       <c r="D5">
-        <v>0.03828272414610723</v>
+        <v>0.01403360736041748</v>
       </c>
       <c r="E5">
-        <v>0.1479192121763759</v>
+        <v>0.1070329263859264</v>
       </c>
       <c r="F5">
-        <v>0.3491568769373785</v>
+        <v>0.4616246226559824</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1370716294261616</v>
+        <v>0.330907036048556</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7448133177228655</v>
+        <v>0.273468687830217</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9511935653033561</v>
+        <v>1.498884071985628</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.886958863774254</v>
+        <v>0.6154573261825931</v>
       </c>
       <c r="C6">
-        <v>0.5301042096940307</v>
+        <v>0.1733182209734139</v>
       </c>
       <c r="D6">
-        <v>0.03805166918179737</v>
+        <v>0.01395524256786729</v>
       </c>
       <c r="E6">
-        <v>0.1469873844740945</v>
+        <v>0.1068561091016882</v>
       </c>
       <c r="F6">
-        <v>0.347793454090322</v>
+        <v>0.461552182610184</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1374151621174935</v>
+        <v>0.3312273629607034</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7393738784257096</v>
+        <v>0.2718628461408628</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9486509964218897</v>
+        <v>1.499214694783959</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.978533778696487</v>
+        <v>0.6449231553294794</v>
       </c>
       <c r="C7">
-        <v>0.5540541882920706</v>
+        <v>0.1811490664574364</v>
       </c>
       <c r="D7">
-        <v>0.03965496334559759</v>
+        <v>0.01449870647849849</v>
       </c>
       <c r="E7">
-        <v>0.1534966670012352</v>
+        <v>0.1080949196839569</v>
       </c>
       <c r="F7">
-        <v>0.3573552467099361</v>
+        <v>0.462096103359471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1350975650253385</v>
+        <v>0.3290336116940438</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7771633499090029</v>
+        <v>0.2830120960949642</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9666225584988695</v>
+        <v>1.497055970491886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.382742672966799</v>
+        <v>0.7745158556203364</v>
       </c>
       <c r="C8">
-        <v>0.659738441135346</v>
+        <v>0.2155296374945408</v>
       </c>
       <c r="D8">
-        <v>0.04672034522145907</v>
+        <v>0.01688494164687881</v>
       </c>
       <c r="E8">
-        <v>0.1833359711977067</v>
+        <v>0.1138484804919813</v>
       </c>
       <c r="F8">
-        <v>0.4021276102946771</v>
+        <v>0.465516095465766</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1266021664479844</v>
+        <v>0.3200890637653906</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9449115168699507</v>
+        <v>0.3322837554056335</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.054395720469614</v>
+        <v>1.490908555598395</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.177820894031186</v>
+        <v>1.027001681524382</v>
       </c>
       <c r="C9">
-        <v>0.8675347692286834</v>
+        <v>0.2822995273415074</v>
       </c>
       <c r="D9">
-        <v>0.06056591805192113</v>
+        <v>0.02151934725368676</v>
       </c>
       <c r="E9">
-        <v>0.2468156274056739</v>
+        <v>0.1261849593141307</v>
       </c>
       <c r="F9">
-        <v>0.5007375835153525</v>
+        <v>0.4759137672200069</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1169515404609562</v>
+        <v>0.3052118937926593</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.279057650946626</v>
+        <v>0.4291645336342214</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.261781874751875</v>
+        <v>1.491087815790308</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.765632469227171</v>
+        <v>1.211446582613348</v>
       </c>
       <c r="C10">
-        <v>1.021137242366677</v>
+        <v>0.3309468636901443</v>
       </c>
       <c r="D10">
-        <v>0.07076009989771848</v>
+        <v>0.02489542674189238</v>
       </c>
       <c r="E10">
-        <v>0.2974809490926731</v>
+        <v>0.1359131060903707</v>
       </c>
       <c r="F10">
-        <v>0.5813609342386101</v>
+        <v>0.4858292803131619</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.114932936418576</v>
+        <v>0.2959211570312767</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.529437795846391</v>
+        <v>0.5005096146014836</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.440593256537454</v>
+        <v>1.498766673317988</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.034377876879489</v>
+        <v>1.295115976528166</v>
       </c>
       <c r="C11">
-        <v>1.091365903250846</v>
+        <v>0.352986894240189</v>
       </c>
       <c r="D11">
-        <v>0.07540937532810688</v>
+        <v>0.02642476604653865</v>
       </c>
       <c r="E11">
-        <v>0.3216513532955432</v>
+        <v>0.140487820143818</v>
       </c>
       <c r="F11">
-        <v>0.6201963499639049</v>
+        <v>0.4908400923093694</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1153087461869973</v>
+        <v>0.2920539943755429</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.644824553552937</v>
+        <v>0.5330049504740515</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.528879456445253</v>
+        <v>1.503917999767623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.136386626945296</v>
+        <v>1.326764311613317</v>
       </c>
       <c r="C12">
-        <v>1.118023909595138</v>
+        <v>0.3613196692631959</v>
       </c>
       <c r="D12">
-        <v>0.07717226636993502</v>
+        <v>0.02700292933669601</v>
       </c>
       <c r="E12">
-        <v>0.3309883509389451</v>
+        <v>0.1422419899096212</v>
       </c>
       <c r="F12">
-        <v>0.6352476070973267</v>
+        <v>0.492809907000975</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1156547569445472</v>
+        <v>0.2906415471166248</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.688770849456532</v>
+        <v>0.5453158901342903</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.563418906787831</v>
+        <v>1.506108606981968</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.114405718293597</v>
+        <v>1.319949877970998</v>
       </c>
       <c r="C13">
-        <v>1.11227956700202</v>
+        <v>0.3595256548809402</v>
       </c>
       <c r="D13">
-        <v>0.07679248321941401</v>
+        <v>0.02687845498411434</v>
       </c>
       <c r="E13">
-        <v>0.3289688825472368</v>
+        <v>0.141863221795596</v>
       </c>
       <c r="F13">
-        <v>0.6319901177159721</v>
+        <v>0.4923824489407025</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1155708815166747</v>
+        <v>0.2909434269713778</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.679294385795245</v>
+        <v>0.5426642588557655</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.555929133987888</v>
+        <v>1.505626127055564</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.042765089820421</v>
+        <v>1.297720423541421</v>
       </c>
       <c r="C14">
-        <v>1.093557713187437</v>
+        <v>0.3536727054980986</v>
       </c>
       <c r="D14">
-        <v>0.07555435945194944</v>
+        <v>0.02647235141959925</v>
       </c>
       <c r="E14">
-        <v>0.3224156837369563</v>
+        <v>0.1406316973284447</v>
       </c>
       <c r="F14">
-        <v>0.6214275005020795</v>
+        <v>0.4910006982771762</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1153330241330295</v>
+        <v>0.2919367483220157</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.648434764697285</v>
+        <v>0.5340176660181726</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.531698187594969</v>
+        <v>1.504093405761211</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.998915949506738</v>
+        <v>1.284099577754148</v>
       </c>
       <c r="C15">
-        <v>1.082098770620945</v>
+        <v>0.3500858609158115</v>
       </c>
       <c r="D15">
-        <v>0.07479629277713684</v>
+        <v>0.02622347461779384</v>
       </c>
       <c r="E15">
-        <v>0.3184263616752503</v>
+        <v>0.1398802057121387</v>
       </c>
       <c r="F15">
-        <v>0.6150036147348601</v>
+        <v>0.4901637673437875</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1152144050495281</v>
+        <v>0.2925519625321265</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.629566338137124</v>
+        <v>0.5287221124437309</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.51700363578621</v>
+        <v>1.503185856788889</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.748100352045583</v>
+        <v>1.20597371616293</v>
       </c>
       <c r="C16">
-        <v>1.016555845200799</v>
+        <v>0.329504654474249</v>
       </c>
       <c r="D16">
-        <v>0.07045654814911728</v>
+        <v>0.02479534782791148</v>
       </c>
       <c r="E16">
-        <v>0.2959258404122735</v>
+        <v>0.1356171726911981</v>
       </c>
       <c r="F16">
-        <v>0.5788692950509358</v>
+        <v>0.485511911534573</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1149358893521502</v>
+        <v>0.2961811401197032</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.521930095960741</v>
+        <v>0.4983867658202144</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.434972373329884</v>
+        <v>1.498463514346895</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.594610236251185</v>
+        <v>1.157984578316075</v>
       </c>
       <c r="C17">
-        <v>0.976446967792441</v>
+        <v>0.316855456605964</v>
       </c>
       <c r="D17">
-        <v>0.0677977103151477</v>
+        <v>0.02391755903910564</v>
       </c>
       <c r="E17">
-        <v>0.2824255145817389</v>
+        <v>0.1330404368752838</v>
       </c>
       <c r="F17">
-        <v>0.5572788782680647</v>
+        <v>0.4827865469423429</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1151085571249943</v>
+        <v>0.2984997502115974</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.456305646515048</v>
+        <v>0.4797872078058418</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.38650197851797</v>
+        <v>1.495992254748501</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.506450508941271</v>
+        <v>1.130360420979912</v>
       </c>
       <c r="C18">
-        <v>0.9534098859245717</v>
+        <v>0.3095715344622647</v>
       </c>
       <c r="D18">
-        <v>0.0662694969028621</v>
+        <v>0.02341207258230327</v>
       </c>
       <c r="E18">
-        <v>0.2747646496554879</v>
+        <v>0.1315724012997208</v>
       </c>
       <c r="F18">
-        <v>0.5450616649763944</v>
+        <v>0.4812660461845439</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1153285397551471</v>
+        <v>0.2998671485818107</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.418697746561961</v>
+        <v>0.4690930144836187</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.359269655980597</v>
+        <v>1.494726839439039</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.476621025971212</v>
+        <v>1.121003613107973</v>
       </c>
       <c r="C19">
-        <v>0.9456151278476739</v>
+        <v>0.3071038859982025</v>
       </c>
       <c r="D19">
-        <v>0.065752238191223</v>
+        <v>0.02324082064773592</v>
       </c>
       <c r="E19">
-        <v>0.2721880446824159</v>
+        <v>0.131077749469803</v>
       </c>
       <c r="F19">
-        <v>0.5409586442238279</v>
+        <v>0.4807593005558601</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1154232337069807</v>
+        <v>0.3003359212280472</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.405986882687642</v>
+        <v>0.4654727969526391</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.350157138951857</v>
+        <v>1.494325137825427</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.610936388602227</v>
+        <v>1.163095400104737</v>
       </c>
       <c r="C20">
-        <v>0.9807131738947987</v>
+        <v>0.3182028613953776</v>
       </c>
       <c r="D20">
-        <v>0.0680806322203793</v>
+        <v>0.0240110640890947</v>
       </c>
       <c r="E20">
-        <v>0.283851708652378</v>
+        <v>0.133313279722131</v>
       </c>
       <c r="F20">
-        <v>0.5595561682722945</v>
+        <v>0.4830717935310389</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1150775646072049</v>
+        <v>0.2982494303234411</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.46327698193781</v>
+        <v>0.4817667720185597</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.391594058244067</v>
+        <v>1.496239169741216</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.063800750807161</v>
+        <v>1.304250727738463</v>
       </c>
       <c r="C21">
-        <v>1.099054930457811</v>
+        <v>0.3553922227474686</v>
       </c>
       <c r="D21">
-        <v>0.07591795859235617</v>
+        <v>0.02659166033579652</v>
       </c>
       <c r="E21">
-        <v>0.3243353254433572</v>
+        <v>0.140992830793131</v>
       </c>
       <c r="F21">
-        <v>0.6245203403241959</v>
+        <v>0.491404585764343</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1153972125920859</v>
+        <v>0.2916435730648814</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.657491828792075</v>
+        <v>0.5365572271058596</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.538784436177707</v>
+        <v>1.504537080346552</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.361201696630076</v>
+        <v>1.396296551371961</v>
       </c>
       <c r="C22">
-        <v>1.176777721724193</v>
+        <v>0.3796198878458767</v>
       </c>
       <c r="D22">
-        <v>0.08105390023757764</v>
+        <v>0.02827259199222709</v>
       </c>
       <c r="E22">
-        <v>0.3518795598290367</v>
+        <v>0.1461392369729495</v>
       </c>
       <c r="F22">
-        <v>0.6690080599584576</v>
+        <v>0.4972723205860632</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1168026989937729</v>
+        <v>0.2876292866372694</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.785910578610299</v>
+        <v>0.5723989087632191</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.641493923264449</v>
+        <v>1.511359311726636</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.202325902132429</v>
+        <v>1.347189452966575</v>
       </c>
       <c r="C23">
-        <v>1.13525624585759</v>
+        <v>0.3666963641755956</v>
       </c>
       <c r="D23">
-        <v>0.07831127445300012</v>
+        <v>0.02737597470849806</v>
       </c>
       <c r="E23">
-        <v>0.3370711986413184</v>
+        <v>0.1433807319422655</v>
       </c>
       <c r="F23">
-        <v>0.645066185865403</v>
+        <v>0.4941018756241391</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1159368669863454</v>
+        <v>0.2897439595537641</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.717221433205168</v>
+        <v>0.5532665473143226</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.58604164166178</v>
+        <v>1.507589659789772</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.603555077654335</v>
+        <v>1.160784905117112</v>
       </c>
       <c r="C24">
-        <v>0.97878435441595</v>
+        <v>0.3175937362001378</v>
       </c>
       <c r="D24">
-        <v>0.06795272206341707</v>
+        <v>0.02396879305159416</v>
       </c>
       <c r="E24">
-        <v>0.2832066144977787</v>
+        <v>0.1331898858715377</v>
       </c>
       <c r="F24">
-        <v>0.5585259993996985</v>
+        <v>0.4829426892080164</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1150912016424712</v>
+        <v>0.2983624928167607</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.460124868778522</v>
+        <v>0.4808718143371493</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.389289962494246</v>
+        <v>1.496127055689186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.962256498185582</v>
+        <v>0.9588792958921886</v>
       </c>
       <c r="C25">
-        <v>0.8112027257309933</v>
+        <v>0.264307386055151</v>
       </c>
       <c r="D25">
-        <v>0.05681865063067448</v>
+        <v>0.02027057965521095</v>
       </c>
       <c r="E25">
-        <v>0.2290132044252999</v>
+        <v>0.1227325180174432</v>
       </c>
       <c r="F25">
-        <v>0.4727470645257554</v>
+        <v>0.4727030551500135</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1187330059578855</v>
+        <v>0.3089498032192175</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.187937702498104</v>
+        <v>0.4029270774830707</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.20141487952074</v>
+        <v>1.489720359830585</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_102/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8095196980875699</v>
+        <v>2.492352276780082</v>
       </c>
       <c r="C2">
-        <v>0.2248015017041212</v>
+        <v>0.6883903245888519</v>
       </c>
       <c r="D2">
-        <v>0.01752849954137758</v>
+        <v>0.04863312103504569</v>
       </c>
       <c r="E2">
-        <v>0.1154778989324541</v>
+        <v>0.191722792799645</v>
       </c>
       <c r="F2">
-        <v>0.4666915567120213</v>
+        <v>0.4149355530974077</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3178451623716185</v>
+        <v>0.1247470113757814</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3456511347932931</v>
+        <v>0.9906554378760646</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.490067553058367</v>
+        <v>1.080393347494947</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7078771821252303</v>
+        <v>2.174587017302997</v>
       </c>
       <c r="C3">
-        <v>0.1978619620783775</v>
+        <v>0.6053196121457916</v>
       </c>
       <c r="D3">
-        <v>0.01565865828340662</v>
+        <v>0.04308419426883603</v>
       </c>
       <c r="E3">
-        <v>0.1108315602517393</v>
+        <v>0.1677501060472437</v>
       </c>
       <c r="F3">
-        <v>0.4635617682336814</v>
+        <v>0.3785688633784403</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3245545926818458</v>
+        <v>0.1306384602492514</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3069021009581476</v>
+        <v>0.8583373503952458</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.493432419653928</v>
+        <v>1.007541744830007</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6452677079924172</v>
+        <v>1.979605286614174</v>
       </c>
       <c r="C4">
-        <v>0.1812406018910337</v>
+        <v>0.5543344067968405</v>
       </c>
       <c r="D4">
-        <v>0.01450505921918221</v>
+        <v>0.03967371749865833</v>
       </c>
       <c r="E4">
-        <v>0.1081095712119904</v>
+        <v>0.1535734019017028</v>
       </c>
       <c r="F4">
-        <v>0.4621030246409248</v>
+        <v>0.3574684735406493</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3290083440213767</v>
+        <v>0.135071359061083</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2831425954706717</v>
+        <v>0.7776060035422887</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.497032555072153</v>
+        <v>0.966837267724415</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6197049179057501</v>
+        <v>1.900152493042441</v>
       </c>
       <c r="C5">
-        <v>0.1744474129780542</v>
+        <v>0.5335549846267611</v>
       </c>
       <c r="D5">
-        <v>0.01403360736041748</v>
+        <v>0.03828272414626355</v>
       </c>
       <c r="E5">
-        <v>0.1070329263859264</v>
+        <v>0.1479192121763475</v>
       </c>
       <c r="F5">
-        <v>0.4616246226559824</v>
+        <v>0.3491568769373998</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.330907036048556</v>
+        <v>0.1370716294261616</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.273468687830217</v>
+        <v>0.7448133177228726</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.498884071985628</v>
+        <v>0.9511935653033561</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6154573261825931</v>
+        <v>1.886958863774254</v>
       </c>
       <c r="C6">
-        <v>0.1733182209734139</v>
+        <v>0.5301042096943149</v>
       </c>
       <c r="D6">
-        <v>0.01395524256786729</v>
+        <v>0.03805166918168368</v>
       </c>
       <c r="E6">
-        <v>0.1068561091016882</v>
+        <v>0.1469873844741016</v>
       </c>
       <c r="F6">
-        <v>0.461552182610184</v>
+        <v>0.347793454090322</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3312273629607034</v>
+        <v>0.1374151621174917</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2718628461408628</v>
+        <v>0.7393738784256954</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.499214694783959</v>
+        <v>0.948650996421847</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6449231553294794</v>
+        <v>1.978533778696601</v>
       </c>
       <c r="C7">
-        <v>0.1811490664574364</v>
+        <v>0.5540541882920706</v>
       </c>
       <c r="D7">
-        <v>0.01449870647849849</v>
+        <v>0.03965496334566154</v>
       </c>
       <c r="E7">
-        <v>0.1080949196839569</v>
+        <v>0.1534966670011997</v>
       </c>
       <c r="F7">
-        <v>0.462096103359471</v>
+        <v>0.3573552467099148</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3290336116940438</v>
+        <v>0.1350975650253492</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2830120960949642</v>
+        <v>0.7771633499089958</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.497055970491886</v>
+        <v>0.9666225584988979</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7745158556203364</v>
+        <v>2.382742672966856</v>
       </c>
       <c r="C8">
-        <v>0.2155296374945408</v>
+        <v>0.6597384411355733</v>
       </c>
       <c r="D8">
-        <v>0.01688494164687881</v>
+        <v>0.04672034522155855</v>
       </c>
       <c r="E8">
-        <v>0.1138484804919813</v>
+        <v>0.1833359711976925</v>
       </c>
       <c r="F8">
-        <v>0.465516095465766</v>
+        <v>0.4021276102946842</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3200890637653906</v>
+        <v>0.126602166447995</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3322837554056335</v>
+        <v>0.9449115168699436</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.490908555598395</v>
+        <v>1.054395720469728</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.027001681524382</v>
+        <v>3.177820894031299</v>
       </c>
       <c r="C9">
-        <v>0.2822995273415074</v>
+        <v>0.8675347692287403</v>
       </c>
       <c r="D9">
-        <v>0.02151934725368676</v>
+        <v>0.06056591805167244</v>
       </c>
       <c r="E9">
-        <v>0.1261849593141307</v>
+        <v>0.2468156274056739</v>
       </c>
       <c r="F9">
-        <v>0.4759137672200069</v>
+        <v>0.5007375835153383</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3052118937926593</v>
+        <v>0.1169515404609704</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4291645336342214</v>
+        <v>1.279057650946626</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.491087815790308</v>
+        <v>1.261781874751904</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.211446582613348</v>
+        <v>3.765632469227228</v>
       </c>
       <c r="C10">
-        <v>0.3309468636901443</v>
+        <v>1.021137242366962</v>
       </c>
       <c r="D10">
-        <v>0.02489542674189238</v>
+        <v>0.07076009989747689</v>
       </c>
       <c r="E10">
-        <v>0.1359131060903707</v>
+        <v>0.2974809490926518</v>
       </c>
       <c r="F10">
-        <v>0.4858292803131619</v>
+        <v>0.5813609342385959</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2959211570312767</v>
+        <v>0.114932936418576</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5005096146014836</v>
+        <v>1.529437795846405</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.498766673317988</v>
+        <v>1.440593256537539</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.295115976528166</v>
+        <v>4.034377876879489</v>
       </c>
       <c r="C11">
-        <v>0.352986894240189</v>
+        <v>1.091365903250846</v>
       </c>
       <c r="D11">
-        <v>0.02642476604653865</v>
+        <v>0.07540937532822056</v>
       </c>
       <c r="E11">
-        <v>0.140487820143818</v>
+        <v>0.3216513532955574</v>
       </c>
       <c r="F11">
-        <v>0.4908400923093694</v>
+        <v>0.6201963499639049</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2920539943755429</v>
+        <v>0.1153087461870115</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5330049504740515</v>
+        <v>1.644824553552937</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.503917999767623</v>
+        <v>1.528879456445168</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.326764311613317</v>
+        <v>4.136386626945125</v>
       </c>
       <c r="C12">
-        <v>0.3613196692631959</v>
+        <v>1.118023909594967</v>
       </c>
       <c r="D12">
-        <v>0.02700292933669601</v>
+        <v>0.07717226636998475</v>
       </c>
       <c r="E12">
-        <v>0.1422419899096212</v>
+        <v>0.3309883509389451</v>
       </c>
       <c r="F12">
-        <v>0.492809907000975</v>
+        <v>0.6352476070973267</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2906415471166248</v>
+        <v>0.115654756944565</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5453158901342903</v>
+        <v>1.688770849456517</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.506108606981968</v>
+        <v>1.563418906787888</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.319949877970998</v>
+        <v>4.114405718293597</v>
       </c>
       <c r="C13">
-        <v>0.3595256548809402</v>
+        <v>1.112279567001963</v>
       </c>
       <c r="D13">
-        <v>0.02687845498411434</v>
+        <v>0.07679248321929322</v>
       </c>
       <c r="E13">
-        <v>0.141863221795596</v>
+        <v>0.3289688825472581</v>
       </c>
       <c r="F13">
-        <v>0.4923824489407025</v>
+        <v>0.6319901177159721</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2909434269713778</v>
+        <v>0.1155708815166605</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5426642588557655</v>
+        <v>1.679294385795274</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.505626127055564</v>
+        <v>1.555929133987888</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.297720423541421</v>
+        <v>4.042765089820193</v>
       </c>
       <c r="C14">
-        <v>0.3536727054980986</v>
+        <v>1.093557713187522</v>
       </c>
       <c r="D14">
-        <v>0.02647235141959925</v>
+        <v>0.07555435945221944</v>
       </c>
       <c r="E14">
-        <v>0.1406316973284447</v>
+        <v>0.3224156837369634</v>
       </c>
       <c r="F14">
-        <v>0.4910006982771762</v>
+        <v>0.6214275005020653</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2919367483220157</v>
+        <v>0.1153330241330259</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5340176660181726</v>
+        <v>1.648434764697299</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.504093405761211</v>
+        <v>1.531698187594969</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.284099577754148</v>
+        <v>3.998915949506795</v>
       </c>
       <c r="C15">
-        <v>0.3500858609158115</v>
+        <v>1.082098770620803</v>
       </c>
       <c r="D15">
-        <v>0.02622347461779384</v>
+        <v>0.07479629277719368</v>
       </c>
       <c r="E15">
-        <v>0.1398802057121387</v>
+        <v>0.3184263616752432</v>
       </c>
       <c r="F15">
-        <v>0.4901637673437875</v>
+        <v>0.6150036147348601</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2925519625321265</v>
+        <v>0.1152144050495245</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5287221124437309</v>
+        <v>1.629566338137138</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.503185856788889</v>
+        <v>1.517003635786125</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.20597371616293</v>
+        <v>3.748100352045526</v>
       </c>
       <c r="C16">
-        <v>0.329504654474249</v>
+        <v>1.016555845200742</v>
       </c>
       <c r="D16">
-        <v>0.02479534782791148</v>
+        <v>0.07045654814905333</v>
       </c>
       <c r="E16">
-        <v>0.1356171726911981</v>
+        <v>0.295925840412302</v>
       </c>
       <c r="F16">
-        <v>0.485511911534573</v>
+        <v>0.5788692950509429</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2961811401197032</v>
+        <v>0.1149358893521466</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4983867658202144</v>
+        <v>1.521930095960769</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.498463514346895</v>
+        <v>1.434972373330027</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.157984578316075</v>
+        <v>3.594610236251242</v>
       </c>
       <c r="C17">
-        <v>0.316855456605964</v>
+        <v>0.9764469677922136</v>
       </c>
       <c r="D17">
-        <v>0.02391755903910564</v>
+        <v>0.06779771031499138</v>
       </c>
       <c r="E17">
-        <v>0.1330404368752838</v>
+        <v>0.282425514581746</v>
       </c>
       <c r="F17">
-        <v>0.4827865469423429</v>
+        <v>0.5572788782680576</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2984997502115974</v>
+        <v>0.1151085571249943</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4797872078058418</v>
+        <v>1.456305646515034</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.495992254748501</v>
+        <v>1.386501978517913</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.130360420979912</v>
+        <v>3.506450508941271</v>
       </c>
       <c r="C18">
-        <v>0.3095715344622647</v>
+        <v>0.9534098859245432</v>
       </c>
       <c r="D18">
-        <v>0.02341207258230327</v>
+        <v>0.0662694969028621</v>
       </c>
       <c r="E18">
-        <v>0.1315724012997208</v>
+        <v>0.2747646496554736</v>
       </c>
       <c r="F18">
-        <v>0.4812660461845439</v>
+        <v>0.5450616649764015</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2998671485818107</v>
+        <v>0.1153285397551436</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4690930144836187</v>
+        <v>1.418697746561961</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.494726839439039</v>
+        <v>1.359269655980626</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.121003613107973</v>
+        <v>3.476621025971156</v>
       </c>
       <c r="C19">
-        <v>0.3071038859982025</v>
+        <v>0.9456151278474181</v>
       </c>
       <c r="D19">
-        <v>0.02324082064773592</v>
+        <v>0.06575223819110931</v>
       </c>
       <c r="E19">
-        <v>0.131077749469803</v>
+        <v>0.2721880446824017</v>
       </c>
       <c r="F19">
-        <v>0.4807593005558601</v>
+        <v>0.5409586442238492</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3003359212280472</v>
+        <v>0.1154232337069807</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4654727969526391</v>
+        <v>1.405986882687657</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.494325137825427</v>
+        <v>1.350157138951857</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.163095400104737</v>
+        <v>3.610936388602113</v>
       </c>
       <c r="C20">
-        <v>0.3182028613953776</v>
+        <v>0.9807131738947987</v>
       </c>
       <c r="D20">
-        <v>0.0240110640890947</v>
+        <v>0.06808063222025851</v>
       </c>
       <c r="E20">
-        <v>0.133313279722131</v>
+        <v>0.283851708652378</v>
       </c>
       <c r="F20">
-        <v>0.4830717935310389</v>
+        <v>0.5595561682722803</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2982494303234411</v>
+        <v>0.1150775646071942</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4817667720185597</v>
+        <v>1.46327698193781</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.496239169741216</v>
+        <v>1.391594058244067</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.304250727738463</v>
+        <v>4.063800750807161</v>
       </c>
       <c r="C21">
-        <v>0.3553922227474686</v>
+        <v>1.099054930457839</v>
       </c>
       <c r="D21">
-        <v>0.02659166033579652</v>
+        <v>0.07591795859228512</v>
       </c>
       <c r="E21">
-        <v>0.140992830793131</v>
+        <v>0.324335325443343</v>
       </c>
       <c r="F21">
-        <v>0.491404585764343</v>
+        <v>0.6245203403241959</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2916435730648814</v>
+        <v>0.1153972125920859</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5365572271058596</v>
+        <v>1.657491828792061</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.504537080346552</v>
+        <v>1.538784436177707</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.396296551371961</v>
+        <v>4.361201696629905</v>
       </c>
       <c r="C22">
-        <v>0.3796198878458767</v>
+        <v>1.176777721724534</v>
       </c>
       <c r="D22">
-        <v>0.02827259199222709</v>
+        <v>0.08105390023772685</v>
       </c>
       <c r="E22">
-        <v>0.1461392369729495</v>
+        <v>0.3518795598290367</v>
       </c>
       <c r="F22">
-        <v>0.4972723205860632</v>
+        <v>0.6690080599584718</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2876292866372694</v>
+        <v>0.1168026989937836</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5723989087632191</v>
+        <v>1.78591057861027</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.511359311726636</v>
+        <v>1.641493923264477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.347189452966575</v>
+        <v>4.2023259021326</v>
       </c>
       <c r="C23">
-        <v>0.3666963641755956</v>
+        <v>1.135256245857306</v>
       </c>
       <c r="D23">
-        <v>0.02737597470849806</v>
+        <v>0.0783112744530996</v>
       </c>
       <c r="E23">
-        <v>0.1433807319422655</v>
+        <v>0.3370711986412829</v>
       </c>
       <c r="F23">
-        <v>0.4941018756241391</v>
+        <v>0.6450661858654172</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2897439595537641</v>
+        <v>0.1159368669863561</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5532665473143226</v>
+        <v>1.717221433205168</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.507589659789772</v>
+        <v>1.586041641661865</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.160784905117112</v>
+        <v>3.603555077654278</v>
       </c>
       <c r="C24">
-        <v>0.3175937362001378</v>
+        <v>0.9787843544158932</v>
       </c>
       <c r="D24">
-        <v>0.02396879305159416</v>
+        <v>0.06795272206352365</v>
       </c>
       <c r="E24">
-        <v>0.1331898858715377</v>
+        <v>0.2832066144978</v>
       </c>
       <c r="F24">
-        <v>0.4829426892080164</v>
+        <v>0.5585259993997056</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2983624928167607</v>
+        <v>0.1150912016424712</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4808718143371493</v>
+        <v>1.460124868778507</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.496127055689186</v>
+        <v>1.389289962494331</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9588792958921886</v>
+        <v>2.962256498185411</v>
       </c>
       <c r="C25">
-        <v>0.264307386055151</v>
+        <v>0.8112027257309649</v>
       </c>
       <c r="D25">
-        <v>0.02027057965521095</v>
+        <v>0.05681865063044</v>
       </c>
       <c r="E25">
-        <v>0.1227325180174432</v>
+        <v>0.2290132044252999</v>
       </c>
       <c r="F25">
-        <v>0.4727030551500135</v>
+        <v>0.4727470645257554</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3089498032192175</v>
+        <v>0.1187330059578713</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4029270774830707</v>
+        <v>1.187937702498132</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.489720359830585</v>
+        <v>1.201414879520712</v>
       </c>
     </row>
   </sheetData>
